--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/template_type.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/template_type.xlsx
@@ -1117,7 +1117,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1199,7 +1199,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1210,6 +1210,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1232,7 +1240,7 @@
   <dimension ref="A1:D267"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1250,18 +1258,18 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="n">
@@ -1270,13 +1278,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="n">
@@ -1285,13 +1293,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="n">
@@ -1300,13 +1308,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="n">
@@ -1315,13 +1323,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="1" t="n">
@@ -1330,13 +1338,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="1" t="n">
@@ -1345,13 +1353,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1" t="n">
@@ -1360,13 +1368,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="1" t="n">
@@ -1375,13 +1383,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1" t="n">
@@ -1390,13 +1398,13 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="1" t="n">
@@ -1405,13 +1413,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="1" t="n">
@@ -1420,13 +1428,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="1" t="n">
@@ -1435,13 +1443,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="1" t="n">
@@ -1450,13 +1458,13 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="1" t="n">
@@ -1465,13 +1473,13 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="1" t="n">
@@ -1480,13 +1488,13 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="A17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="1" t="n">
@@ -1495,13 +1503,13 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="A18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="1" t="n">
@@ -1510,13 +1518,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="1" t="n">
@@ -1525,13 +1533,13 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="0" t="s">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="1" t="n">
@@ -1540,13 +1548,13 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="0" t="s">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="1" t="n">
@@ -1555,13 +1563,13 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="0" t="s">
+      <c r="A22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="1" t="n">
@@ -1570,13 +1578,13 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="0" t="s">
+      <c r="A23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="1" t="n">
@@ -1585,13 +1593,13 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="0" t="s">
+      <c r="A24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="1" t="n">
@@ -1600,13 +1608,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="0" t="s">
+      <c r="A25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="1" t="n">
@@ -1615,13 +1623,13 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="0" t="s">
+      <c r="A26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="1" t="n">
@@ -1630,13 +1638,13 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="0" t="s">
+      <c r="A27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="1" t="n">
@@ -1645,13 +1653,13 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="0" t="s">
+      <c r="A28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D28" s="1" t="n">
@@ -1660,13 +1668,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="0" t="s">
+      <c r="A29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D29" s="1" t="n">
@@ -1675,13 +1683,13 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="0" t="s">
+      <c r="A30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="1" t="n">
@@ -1690,13 +1698,13 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="0" t="s">
+      <c r="A31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="1" t="n">
@@ -1705,13 +1713,13 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="0" t="s">
+      <c r="A32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D32" s="1" t="n">
@@ -1720,13 +1728,13 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="0" t="s">
+      <c r="A33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D33" s="1" t="n">
@@ -1735,13 +1743,13 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="0" t="s">
+      <c r="A34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D34" s="1" t="n">
@@ -1750,13 +1758,13 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="0" t="s">
+      <c r="A35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D35" s="1" t="n">
@@ -1765,13 +1773,13 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="0" t="s">
+      <c r="A36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D36" s="1" t="n">
@@ -1780,13 +1788,13 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="0" t="s">
+      <c r="A37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D37" s="1" t="n">
@@ -1795,13 +1803,13 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="0" t="s">
+      <c r="A38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D38" s="1" t="n">
@@ -1810,13 +1818,13 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="0" t="s">
+      <c r="A39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D39" s="1" t="n">
@@ -1825,13 +1833,13 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="0" t="s">
+      <c r="A40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D40" s="1" t="n">
@@ -1840,13 +1848,13 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="0" t="s">
+      <c r="A41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D41" s="1" t="n">
@@ -1855,13 +1863,13 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="0" t="s">
+      <c r="A42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D42" s="1" t="n">
@@ -1870,13 +1878,13 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="0" t="s">
+      <c r="A43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D43" s="1" t="n">
@@ -1885,13 +1893,13 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="0" t="s">
+      <c r="A44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D44" s="1" t="n">
@@ -1900,13 +1908,13 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="0" t="s">
+      <c r="A45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D45" s="1" t="n">
@@ -1915,13 +1923,13 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="0" t="s">
+      <c r="A46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D46" s="1" t="n">
@@ -1930,13 +1938,13 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="0" t="s">
+      <c r="A47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D47" s="1" t="n">
@@ -1945,13 +1953,13 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="0" t="s">
+      <c r="A48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D48" s="1" t="n">
@@ -1960,13 +1968,13 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="0" t="s">
+      <c r="A49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D49" s="1" t="n">
@@ -1975,13 +1983,13 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="0" t="s">
+      <c r="A50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D50" s="1" t="n">
@@ -1990,13 +1998,13 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="0" t="s">
+      <c r="A51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D51" s="1" t="n">
@@ -2005,13 +2013,13 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="0" t="s">
+      <c r="A52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D52" s="1" t="n">
@@ -2020,13 +2028,13 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="0" t="s">
+      <c r="A53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D53" s="1" t="n">
@@ -2035,13 +2043,13 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" s="0" t="s">
+      <c r="A54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D54" s="1" t="n">
@@ -2050,13 +2058,13 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="0" t="s">
+      <c r="A55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D55" s="1" t="n">
@@ -2065,13 +2073,13 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="0" t="s">
+      <c r="A56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D56" s="1" t="n">
@@ -2080,13 +2088,13 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="0" t="s">
+      <c r="A57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D57" s="1" t="n">
@@ -2095,13 +2103,13 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B58" s="0" t="s">
+      <c r="A58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D58" s="1" t="n">
@@ -2110,13 +2118,13 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" s="0" t="s">
+      <c r="A59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D59" s="1" t="n">
@@ -2125,13 +2133,13 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="0" t="s">
+      <c r="A60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D60" s="1" t="n">
@@ -2140,13 +2148,13 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="0" t="s">
+      <c r="A61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D61" s="1" t="n">
@@ -2155,13 +2163,13 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="0" t="s">
+      <c r="A62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D62" s="1" t="n">
@@ -2170,13 +2178,13 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63" s="0" t="s">
+      <c r="A63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D63" s="1" t="n">
@@ -2185,13 +2193,13 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="0" t="s">
+      <c r="A64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D64" s="1" t="n">
@@ -2200,13 +2208,13 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" s="0" t="s">
+      <c r="A65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D65" s="1" t="n">
@@ -2215,13 +2223,13 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="0" t="s">
+      <c r="A66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D66" s="1" t="n">
@@ -2230,13 +2238,13 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B67" s="0" t="s">
+      <c r="A67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="4" t="s">
         <v>102</v>
       </c>
       <c r="D67" s="1" t="n">
@@ -2245,13 +2253,13 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="0" t="s">
+      <c r="A68" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D68" s="1" t="n">
@@ -2260,13 +2268,13 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69" s="0" t="s">
+      <c r="A69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D69" s="1" t="n">
@@ -2275,13 +2283,13 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" s="0" t="s">
+      <c r="A70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D70" s="1" t="n">
@@ -2290,13 +2298,13 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B71" s="0" t="s">
+      <c r="A71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D71" s="1" t="n">
@@ -2305,13 +2313,13 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" s="0" t="s">
+      <c r="A72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D72" s="1" t="n">
@@ -2320,13 +2328,13 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B73" s="0" t="s">
+      <c r="A73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="4" t="s">
         <v>111</v>
       </c>
       <c r="D73" s="1" t="n">
@@ -2335,13 +2343,13 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="0" t="s">
+      <c r="A74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D74" s="1" t="n">
@@ -2350,13 +2358,13 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75" s="0" t="s">
+      <c r="A75" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="4" t="s">
         <v>111</v>
       </c>
       <c r="D75" s="1" t="n">
@@ -2365,13 +2373,13 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="0" t="s">
+      <c r="A76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D76" s="1" t="n">
@@ -2380,13 +2388,13 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B77" s="0" t="s">
+      <c r="A77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="4" t="s">
         <v>115</v>
       </c>
       <c r="D77" s="1" t="n">
@@ -2395,13 +2403,13 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="0" t="s">
+      <c r="A78" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D78" s="1" t="n">
@@ -2410,13 +2418,13 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" s="0" t="s">
+      <c r="A79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D79" s="1" t="n">
@@ -2425,13 +2433,13 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="0" t="s">
+      <c r="A80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D80" s="1" t="n">
@@ -2440,13 +2448,13 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B81" s="0" t="s">
+      <c r="A81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D81" s="1" t="n">
@@ -2455,13 +2463,13 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="0" t="s">
+      <c r="A82" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D82" s="1" t="n">
@@ -2470,13 +2478,13 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B83" s="0" t="s">
+      <c r="A83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D83" s="1" t="n">
@@ -2485,13 +2493,13 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" s="0" t="s">
+      <c r="A84" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="4" t="s">
         <v>126</v>
       </c>
       <c r="D84" s="1" t="n">
@@ -2500,13 +2508,13 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B85" s="0" t="s">
+      <c r="A85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="4" t="s">
         <v>127</v>
       </c>
       <c r="D85" s="1" t="n">
@@ -2515,13 +2523,13 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" s="0" t="s">
+      <c r="A86" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" s="4" t="s">
         <v>126</v>
       </c>
       <c r="D86" s="1" t="n">
@@ -2530,13 +2538,13 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B87" s="0" t="s">
+      <c r="A87" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="4" t="s">
         <v>127</v>
       </c>
       <c r="D87" s="1" t="n">
@@ -2545,13 +2553,13 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B88" s="0" t="s">
+      <c r="A88" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D88" s="1" t="n">
@@ -2560,13 +2568,13 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B89" s="0" t="s">
+      <c r="A89" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D89" s="1" t="n">
@@ -2575,13 +2583,13 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90" s="0" t="s">
+      <c r="A90" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D90" s="1" t="n">
@@ -2590,13 +2598,13 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B91" s="0" t="s">
+      <c r="A91" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D91" s="1" t="n">
@@ -2605,13 +2613,13 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" s="0" t="s">
+      <c r="A92" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="4" t="s">
         <v>134</v>
       </c>
       <c r="D92" s="1" t="n">
@@ -2620,13 +2628,13 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B93" s="0" t="s">
+      <c r="A93" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="4" t="s">
         <v>135</v>
       </c>
       <c r="D93" s="1" t="n">
@@ -2635,13 +2643,13 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B94" s="0" t="s">
+      <c r="A94" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D94" s="1" t="n">
@@ -2650,13 +2658,13 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B95" s="0" t="s">
+      <c r="A95" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D95" s="1" t="n">
@@ -2665,13 +2673,13 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B96" s="0" t="s">
+      <c r="A96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D96" s="1" t="n">
@@ -2680,13 +2688,13 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B97" s="0" t="s">
+      <c r="A97" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D97" s="1" t="n">
@@ -2695,13 +2703,13 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B98" s="0" t="s">
+      <c r="A98" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" s="4" t="s">
         <v>143</v>
       </c>
       <c r="D98" s="1" t="n">
@@ -2710,13 +2718,13 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B99" s="0" t="s">
+      <c r="A99" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="4" t="s">
         <v>144</v>
       </c>
       <c r="D99" s="1" t="n">
@@ -2725,13 +2733,13 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="0" t="s">
+      <c r="A100" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D100" s="1" t="n">
@@ -2740,13 +2748,13 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B101" s="0" t="s">
+      <c r="A101" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D101" s="1" t="n">
@@ -2755,13 +2763,13 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B102" s="0" t="s">
+      <c r="A102" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D102" s="1" t="n">
@@ -2770,13 +2778,13 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B103" s="0" t="s">
+      <c r="A103" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" s="4" t="s">
         <v>150</v>
       </c>
       <c r="D103" s="1" t="n">
@@ -2785,13 +2793,13 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B104" s="0" t="s">
+      <c r="A104" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" s="4" t="s">
         <v>152</v>
       </c>
       <c r="D104" s="1" t="n">
@@ -2800,13 +2808,13 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B105" s="0" t="s">
+      <c r="A105" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" s="4" t="s">
         <v>153</v>
       </c>
       <c r="D105" s="1" t="n">
@@ -2815,13 +2823,13 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B106" s="0" t="s">
+      <c r="A106" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" s="4" t="s">
         <v>155</v>
       </c>
       <c r="D106" s="1" t="n">
@@ -2830,13 +2838,13 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B107" s="0" t="s">
+      <c r="A107" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" s="4" t="s">
         <v>156</v>
       </c>
       <c r="D107" s="1" t="n">
@@ -2845,13 +2853,13 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B108" s="0" t="s">
+      <c r="A108" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D108" s="1" t="n">
@@ -2860,13 +2868,13 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B109" s="0" t="s">
+      <c r="A109" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" s="4" t="s">
         <v>159</v>
       </c>
       <c r="D109" s="1" t="n">
@@ -2875,13 +2883,13 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" s="0" t="s">
+      <c r="A110" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" s="4" t="s">
         <v>161</v>
       </c>
       <c r="D110" s="1" t="n">
@@ -2890,13 +2898,13 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B111" s="0" t="s">
+      <c r="A111" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" s="4" t="s">
         <v>162</v>
       </c>
       <c r="D111" s="1" t="n">
@@ -2905,13 +2913,13 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B112" s="0" t="s">
+      <c r="A112" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D112" s="1" t="n">
@@ -2920,13 +2928,13 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B113" s="0" t="s">
+      <c r="A113" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D113" s="1" t="n">
@@ -2935,13 +2943,13 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B114" s="0" t="s">
+      <c r="A114" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" s="4" t="s">
         <v>167</v>
       </c>
       <c r="D114" s="1" t="n">
@@ -2950,13 +2958,13 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B115" s="0" t="s">
+      <c r="A115" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" s="4" t="s">
         <v>168</v>
       </c>
       <c r="D115" s="1" t="n">
@@ -2965,13 +2973,13 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B116" s="0" t="s">
+      <c r="A116" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" s="4" t="s">
         <v>170</v>
       </c>
       <c r="D116" s="1" t="n">
@@ -2980,13 +2988,13 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B117" s="0" t="s">
+      <c r="A117" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" s="4" t="s">
         <v>171</v>
       </c>
       <c r="D117" s="1" t="n">
@@ -2995,13 +3003,13 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B118" s="0" t="s">
+      <c r="A118" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" s="4" t="s">
         <v>173</v>
       </c>
       <c r="D118" s="1" t="n">
@@ -3010,13 +3018,13 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B119" s="0" t="s">
+      <c r="A119" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" s="4" t="s">
         <v>174</v>
       </c>
       <c r="D119" s="1" t="n">
@@ -3025,13 +3033,13 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B120" s="0" t="s">
+      <c r="A120" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" s="4" t="s">
         <v>176</v>
       </c>
       <c r="D120" s="1" t="n">
@@ -3040,13 +3048,13 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B121" s="0" t="s">
+      <c r="A121" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" s="4" t="s">
         <v>177</v>
       </c>
       <c r="D121" s="1" t="n">
@@ -3055,13 +3063,13 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B122" s="0" t="s">
+      <c r="A122" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" s="4" t="s">
         <v>179</v>
       </c>
       <c r="D122" s="1" t="n">
@@ -3070,13 +3078,13 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B123" s="0" t="s">
+      <c r="A123" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" s="4" t="s">
         <v>180</v>
       </c>
       <c r="D123" s="1" t="n">
@@ -3085,13 +3093,13 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B124" s="0" t="s">
+      <c r="A124" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D124" s="1" t="n">
@@ -3100,13 +3108,13 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B125" s="0" t="s">
+      <c r="A125" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" s="4" t="s">
         <v>183</v>
       </c>
       <c r="D125" s="1" t="n">
@@ -3115,13 +3123,13 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B126" s="0" t="s">
+      <c r="A126" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" s="4" t="s">
         <v>185</v>
       </c>
       <c r="D126" s="1" t="n">
@@ -3130,13 +3138,13 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B127" s="0" t="s">
+      <c r="A127" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" s="4" t="s">
         <v>186</v>
       </c>
       <c r="D127" s="1" t="n">
@@ -3145,13 +3153,13 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B128" s="0" t="s">
+      <c r="A128" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D128" s="1" t="n">
@@ -3160,13 +3168,13 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B129" s="0" t="s">
+      <c r="A129" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D129" s="1" t="n">
@@ -3175,13 +3183,13 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B130" s="0" t="s">
+      <c r="A130" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" s="4" t="s">
         <v>191</v>
       </c>
       <c r="D130" s="1" t="n">
@@ -3190,13 +3198,13 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B131" s="0" t="s">
+      <c r="A131" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" s="4" t="s">
         <v>192</v>
       </c>
       <c r="D131" s="1" t="n">
@@ -3205,13 +3213,13 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B132" s="0" t="s">
+      <c r="A132" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" s="4" t="s">
         <v>194</v>
       </c>
       <c r="D132" s="1" t="n">
@@ -3220,13 +3228,13 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B133" s="0" t="s">
+      <c r="A133" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" s="4" t="s">
         <v>195</v>
       </c>
       <c r="D133" s="1" t="n">
@@ -3235,13 +3243,13 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B134" s="0" t="s">
+      <c r="A134" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" s="4" t="s">
         <v>197</v>
       </c>
       <c r="D134" s="1" t="n">
@@ -3250,13 +3258,13 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B135" s="0" t="s">
+      <c r="A135" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" s="4" t="s">
         <v>198</v>
       </c>
       <c r="D135" s="1" t="n">
@@ -3265,13 +3273,13 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B136" s="0" t="s">
+      <c r="A136" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D136" s="1" t="n">
@@ -3280,13 +3288,13 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B137" s="0" t="s">
+      <c r="A137" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" s="4" t="s">
         <v>201</v>
       </c>
       <c r="D137" s="1" t="n">
@@ -3295,13 +3303,13 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B138" s="0" t="s">
+      <c r="A138" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" s="4" t="s">
         <v>203</v>
       </c>
       <c r="D138" s="1" t="n">
@@ -3310,13 +3318,13 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B139" s="0" t="s">
+      <c r="A139" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" s="4" t="s">
         <v>204</v>
       </c>
       <c r="D139" s="1" t="n">
@@ -3325,13 +3333,13 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B140" s="0" t="s">
+      <c r="A140" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" s="4" t="s">
         <v>206</v>
       </c>
       <c r="D140" s="1" t="n">
@@ -3340,13 +3348,13 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B141" s="0" t="s">
+      <c r="A141" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" s="4" t="s">
         <v>207</v>
       </c>
       <c r="D141" s="1" t="n">
@@ -3355,13 +3363,13 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B142" s="0" t="s">
+      <c r="A142" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" s="4" t="s">
         <v>209</v>
       </c>
       <c r="D142" s="1" t="n">
@@ -3370,13 +3378,13 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B143" s="0" t="s">
+      <c r="A143" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" s="4" t="s">
         <v>210</v>
       </c>
       <c r="D143" s="1" t="n">
@@ -3385,13 +3393,13 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B144" s="0" t="s">
+      <c r="A144" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" s="4" t="s">
         <v>212</v>
       </c>
       <c r="D144" s="1" t="n">
@@ -3400,13 +3408,13 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B145" s="0" t="s">
+      <c r="A145" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" s="4" t="s">
         <v>213</v>
       </c>
       <c r="D145" s="1" t="n">
@@ -3415,13 +3423,13 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B146" s="0" t="s">
+      <c r="A146" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" s="4" t="s">
         <v>215</v>
       </c>
       <c r="D146" s="1" t="n">
@@ -3430,13 +3438,13 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B147" s="0" t="s">
+      <c r="A147" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C147" s="0" t="s">
+      <c r="C147" s="4" t="s">
         <v>216</v>
       </c>
       <c r="D147" s="1" t="n">
@@ -3445,13 +3453,13 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B148" s="0" t="s">
+      <c r="A148" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" s="4" t="s">
         <v>218</v>
       </c>
       <c r="D148" s="1" t="n">
@@ -3460,13 +3468,13 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B149" s="0" t="s">
+      <c r="A149" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" s="4" t="s">
         <v>219</v>
       </c>
       <c r="D149" s="1" t="n">
@@ -3475,13 +3483,13 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B150" s="0" t="s">
+      <c r="A150" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" s="4" t="s">
         <v>221</v>
       </c>
       <c r="D150" s="1" t="n">
@@ -3490,13 +3498,13 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B151" s="0" t="s">
+      <c r="A151" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" s="4" t="s">
         <v>222</v>
       </c>
       <c r="D151" s="1" t="n">
@@ -3505,13 +3513,13 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B152" s="0" t="s">
+      <c r="A152" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" s="4" t="s">
         <v>224</v>
       </c>
       <c r="D152" s="1" t="n">
@@ -3520,13 +3528,13 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B153" s="0" t="s">
+      <c r="A153" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" s="4" t="s">
         <v>225</v>
       </c>
       <c r="D153" s="1" t="n">
@@ -3535,13 +3543,13 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B154" s="0" t="s">
+      <c r="A154" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" s="4" t="s">
         <v>227</v>
       </c>
       <c r="D154" s="1" t="n">
@@ -3550,13 +3558,13 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B155" s="0" t="s">
+      <c r="A155" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" s="4" t="s">
         <v>228</v>
       </c>
       <c r="D155" s="1" t="n">
@@ -3565,13 +3573,13 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B156" s="0" t="s">
+      <c r="A156" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" s="4" t="s">
         <v>230</v>
       </c>
       <c r="D156" s="1" t="n">
@@ -3580,13 +3588,13 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B157" s="0" t="s">
+      <c r="A157" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" s="4" t="s">
         <v>231</v>
       </c>
       <c r="D157" s="1" t="n">
@@ -3595,13 +3603,13 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B158" s="0" t="s">
+      <c r="A158" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" s="4" t="s">
         <v>233</v>
       </c>
       <c r="D158" s="1" t="n">
@@ -3610,13 +3618,13 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B159" s="0" t="s">
+      <c r="A159" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" s="4" t="s">
         <v>234</v>
       </c>
       <c r="D159" s="1" t="n">
@@ -3625,13 +3633,13 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B160" s="0" t="s">
+      <c r="A160" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" s="4" t="s">
         <v>236</v>
       </c>
       <c r="D160" s="1" t="n">
@@ -3640,13 +3648,13 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B161" s="0" t="s">
+      <c r="A161" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B161" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" s="4" t="s">
         <v>237</v>
       </c>
       <c r="D161" s="1" t="n">
@@ -3655,13 +3663,13 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B162" s="0" t="s">
+      <c r="A162" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" s="4" t="s">
         <v>239</v>
       </c>
       <c r="D162" s="1" t="n">
@@ -3670,13 +3678,13 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B163" s="0" t="s">
+      <c r="A163" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" s="4" t="s">
         <v>240</v>
       </c>
       <c r="D163" s="1" t="n">
@@ -3685,13 +3693,13 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B164" s="0" t="s">
+      <c r="A164" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="C164" s="4" t="s">
         <v>242</v>
       </c>
       <c r="D164" s="1" t="n">
@@ -3700,13 +3708,13 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B165" s="0" t="s">
+      <c r="A165" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="C165" s="4" t="s">
         <v>243</v>
       </c>
       <c r="D165" s="1" t="n">
@@ -3715,13 +3723,13 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B166" s="0" t="s">
+      <c r="A166" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D166" s="1" t="n">
@@ -3730,13 +3738,13 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B167" s="0" t="s">
+      <c r="A167" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D167" s="1" t="n">
@@ -3745,13 +3753,13 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B168" s="0" t="s">
+      <c r="A168" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" s="4" t="s">
         <v>248</v>
       </c>
       <c r="D168" s="1" t="n">
@@ -3760,13 +3768,13 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B169" s="0" t="s">
+      <c r="A169" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" s="4" t="s">
         <v>249</v>
       </c>
       <c r="D169" s="1" t="n">
@@ -3775,13 +3783,13 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B170" s="0" t="s">
+      <c r="A170" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="C170" s="4" t="s">
         <v>251</v>
       </c>
       <c r="D170" s="1" t="n">
@@ -3790,13 +3798,13 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B171" s="0" t="s">
+      <c r="A171" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="C171" s="4" t="s">
         <v>252</v>
       </c>
       <c r="D171" s="1" t="n">
@@ -3805,13 +3813,13 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B172" s="0" t="s">
+      <c r="A172" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="C172" s="4" t="s">
         <v>254</v>
       </c>
       <c r="D172" s="1" t="n">
@@ -3820,13 +3828,13 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B173" s="0" t="s">
+      <c r="A173" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C173" s="4" t="s">
         <v>255</v>
       </c>
       <c r="D173" s="1" t="n">
@@ -3835,13 +3843,13 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B174" s="0" t="s">
+      <c r="A174" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C174" s="0" t="s">
+      <c r="C174" s="4" t="s">
         <v>257</v>
       </c>
       <c r="D174" s="1" t="n">
@@ -3850,13 +3858,13 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B175" s="0" t="s">
+      <c r="A175" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C175" s="0" t="s">
+      <c r="C175" s="4" t="s">
         <v>258</v>
       </c>
       <c r="D175" s="1" t="n">
@@ -3865,13 +3873,13 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B176" s="0" t="s">
+      <c r="A176" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C176" s="0" t="s">
+      <c r="C176" s="4" t="s">
         <v>260</v>
       </c>
       <c r="D176" s="1" t="n">
@@ -3880,13 +3888,13 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B177" s="0" t="s">
+      <c r="A177" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B177" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="C177" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D177" s="1" t="n">
@@ -3895,13 +3903,13 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B178" s="0" t="s">
+      <c r="A178" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C178" s="0" t="s">
+      <c r="C178" s="4" t="s">
         <v>263</v>
       </c>
       <c r="D178" s="1" t="n">
@@ -3910,13 +3918,13 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B179" s="0" t="s">
+      <c r="A179" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C179" s="0" t="s">
+      <c r="C179" s="4" t="s">
         <v>264</v>
       </c>
       <c r="D179" s="1" t="n">
@@ -3925,13 +3933,13 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B180" s="0" t="s">
+      <c r="A180" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C180" s="0" t="s">
+      <c r="C180" s="4" t="s">
         <v>266</v>
       </c>
       <c r="D180" s="1" t="n">
@@ -3940,13 +3948,13 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B181" s="0" t="s">
+      <c r="A181" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C181" s="0" t="s">
+      <c r="C181" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D181" s="1" t="n">
@@ -3955,13 +3963,13 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B182" s="0" t="s">
+      <c r="A182" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C182" s="0" t="s">
+      <c r="C182" s="4" t="s">
         <v>269</v>
       </c>
       <c r="D182" s="1" t="n">
@@ -3970,13 +3978,13 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B183" s="0" t="s">
+      <c r="A183" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C183" s="0" t="s">
+      <c r="C183" s="4" t="s">
         <v>270</v>
       </c>
       <c r="D183" s="1" t="n">
@@ -3985,13 +3993,13 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B184" s="0" t="s">
+      <c r="A184" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C184" s="0" t="s">
+      <c r="C184" s="4" t="s">
         <v>272</v>
       </c>
       <c r="D184" s="1" t="n">
@@ -4000,13 +4008,13 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B185" s="0" t="s">
+      <c r="A185" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C185" s="0" t="s">
+      <c r="C185" s="4" t="s">
         <v>273</v>
       </c>
       <c r="D185" s="1" t="n">
@@ -4015,13 +4023,13 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B186" s="0" t="s">
+      <c r="A186" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C186" s="0" t="s">
+      <c r="C186" s="4" t="s">
         <v>275</v>
       </c>
       <c r="D186" s="1" t="n">
@@ -4030,13 +4038,13 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B187" s="0" t="s">
+      <c r="A187" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B187" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C187" s="0" t="s">
+      <c r="C187" s="4" t="s">
         <v>276</v>
       </c>
       <c r="D187" s="1" t="n">
@@ -4045,13 +4053,13 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B188" s="0" t="s">
+      <c r="A188" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C188" s="0" t="s">
+      <c r="C188" s="4" t="s">
         <v>278</v>
       </c>
       <c r="D188" s="1" t="n">
@@ -4060,13 +4068,13 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B189" s="0" t="s">
+      <c r="A189" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C189" s="0" t="s">
+      <c r="C189" s="4" t="s">
         <v>279</v>
       </c>
       <c r="D189" s="1" t="n">
@@ -4075,13 +4083,13 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B190" s="0" t="s">
+      <c r="A190" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C190" s="0" t="s">
+      <c r="C190" s="4" t="s">
         <v>281</v>
       </c>
       <c r="D190" s="1" t="n">
@@ -4090,13 +4098,13 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B191" s="0" t="s">
+      <c r="A191" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B191" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C191" s="0" t="s">
+      <c r="C191" s="4" t="s">
         <v>282</v>
       </c>
       <c r="D191" s="1" t="n">
@@ -4105,13 +4113,13 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B192" s="0" t="s">
+      <c r="A192" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C192" s="0" t="s">
+      <c r="C192" s="4" t="s">
         <v>284</v>
       </c>
       <c r="D192" s="1" t="n">
@@ -4120,13 +4128,13 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B193" s="0" t="s">
+      <c r="A193" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C193" s="0" t="s">
+      <c r="C193" s="4" t="s">
         <v>285</v>
       </c>
       <c r="D193" s="1" t="n">
@@ -4135,13 +4143,13 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B194" s="0" t="s">
+      <c r="A194" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C194" s="0" t="s">
+      <c r="C194" s="4" t="s">
         <v>287</v>
       </c>
       <c r="D194" s="1" t="n">
@@ -4150,13 +4158,13 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B195" s="0" t="s">
+      <c r="A195" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B195" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C195" s="0" t="s">
+      <c r="C195" s="4" t="s">
         <v>288</v>
       </c>
       <c r="D195" s="1" t="n">
@@ -4165,13 +4173,13 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B196" s="0" t="s">
+      <c r="A196" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C196" s="0" t="s">
+      <c r="C196" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D196" s="1" t="n">
@@ -4180,13 +4188,13 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B197" s="0" t="s">
+      <c r="A197" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B197" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C197" s="0" t="s">
+      <c r="C197" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D197" s="1" t="n">
@@ -4195,13 +4203,13 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B198" s="0" t="s">
+      <c r="A198" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C198" s="0" t="s">
+      <c r="C198" s="4" t="s">
         <v>292</v>
       </c>
       <c r="D198" s="1" t="n">
@@ -4210,13 +4218,13 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B199" s="0" t="s">
+      <c r="A199" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C199" s="0" t="s">
+      <c r="C199" s="4" t="s">
         <v>292</v>
       </c>
       <c r="D199" s="1" t="n">
@@ -4225,13 +4233,13 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B200" s="0" t="s">
+      <c r="A200" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C200" s="0" t="s">
+      <c r="C200" s="4" t="s">
         <v>294</v>
       </c>
       <c r="D200" s="1" t="n">
@@ -4240,13 +4248,13 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B201" s="0" t="s">
+      <c r="A201" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B201" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C201" s="0" t="s">
+      <c r="C201" s="4" t="s">
         <v>294</v>
       </c>
       <c r="D201" s="1" t="n">
@@ -4255,13 +4263,13 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B202" s="0" t="s">
+      <c r="A202" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C202" s="0" t="s">
+      <c r="C202" s="4" t="s">
         <v>296</v>
       </c>
       <c r="D202" s="1" t="n">
@@ -4270,13 +4278,13 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B203" s="0" t="s">
+      <c r="A203" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C203" s="0" t="s">
+      <c r="C203" s="4" t="s">
         <v>296</v>
       </c>
       <c r="D203" s="1" t="n">
@@ -4285,13 +4293,13 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B204" s="0" t="s">
+      <c r="A204" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C204" s="0" t="s">
+      <c r="C204" s="4" t="s">
         <v>298</v>
       </c>
       <c r="D204" s="1" t="n">
@@ -4300,13 +4308,13 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B205" s="0" t="s">
+      <c r="A205" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B205" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C205" s="0" t="s">
+      <c r="C205" s="4" t="s">
         <v>298</v>
       </c>
       <c r="D205" s="1" t="n">
@@ -4315,13 +4323,13 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B206" s="0" t="s">
+      <c r="A206" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C206" s="0" t="s">
+      <c r="C206" s="4" t="s">
         <v>300</v>
       </c>
       <c r="D206" s="1" t="n">
@@ -4330,13 +4338,13 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B207" s="0" t="s">
+      <c r="A207" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B207" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C207" s="0" t="s">
+      <c r="C207" s="4" t="s">
         <v>300</v>
       </c>
       <c r="D207" s="1" t="n">
@@ -4345,13 +4353,13 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B208" s="0" t="s">
+      <c r="A208" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B208" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C208" s="0" t="s">
+      <c r="C208" s="4" t="s">
         <v>302</v>
       </c>
       <c r="D208" s="1" t="n">
@@ -4360,13 +4368,13 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B209" s="0" t="s">
+      <c r="A209" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C209" s="0" t="s">
+      <c r="C209" s="4" t="s">
         <v>302</v>
       </c>
       <c r="D209" s="1" t="n">
@@ -4375,13 +4383,13 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B210" s="0" t="s">
+      <c r="A210" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C210" s="0" t="s">
+      <c r="C210" s="4" t="s">
         <v>304</v>
       </c>
       <c r="D210" s="1" t="n">
@@ -4390,13 +4398,13 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B211" s="0" t="s">
+      <c r="A211" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B211" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C211" s="0" t="s">
+      <c r="C211" s="4" t="s">
         <v>304</v>
       </c>
       <c r="D211" s="1" t="n">
@@ -4405,13 +4413,13 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B212" s="0" t="s">
+      <c r="A212" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C212" s="0" t="s">
+      <c r="C212" s="4" t="s">
         <v>306</v>
       </c>
       <c r="D212" s="1" t="n">
@@ -4420,13 +4428,13 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B213" s="0" t="s">
+      <c r="A213" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B213" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C213" s="0" t="s">
+      <c r="C213" s="4" t="s">
         <v>306</v>
       </c>
       <c r="D213" s="1" t="n">
@@ -4435,13 +4443,13 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B214" s="0" t="s">
+      <c r="A214" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C214" s="0" t="s">
+      <c r="C214" s="4" t="s">
         <v>308</v>
       </c>
       <c r="D214" s="1" t="n">
@@ -4450,13 +4458,13 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B215" s="0" t="s">
+      <c r="A215" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B215" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C215" s="0" t="s">
+      <c r="C215" s="4" t="s">
         <v>308</v>
       </c>
       <c r="D215" s="1" t="n">
@@ -4465,13 +4473,13 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B216" s="0" t="s">
+      <c r="A216" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C216" s="0" t="s">
+      <c r="C216" s="4" t="s">
         <v>310</v>
       </c>
       <c r="D216" s="1" t="n">
@@ -4480,13 +4488,13 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B217" s="0" t="s">
+      <c r="A217" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B217" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C217" s="0" t="s">
+      <c r="C217" s="4" t="s">
         <v>310</v>
       </c>
       <c r="D217" s="1" t="n">
@@ -4495,13 +4503,13 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B218" s="0" t="s">
+      <c r="A218" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C218" s="0" t="s">
+      <c r="C218" s="4" t="s">
         <v>312</v>
       </c>
       <c r="D218" s="1" t="n">
@@ -4510,13 +4518,13 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B219" s="0" t="s">
+      <c r="A219" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B219" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C219" s="0" t="s">
+      <c r="C219" s="4" t="s">
         <v>312</v>
       </c>
       <c r="D219" s="1" t="n">
@@ -4525,13 +4533,13 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B220" s="0" t="s">
+      <c r="A220" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B220" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C220" s="0" t="s">
+      <c r="C220" s="4" t="s">
         <v>314</v>
       </c>
       <c r="D220" s="1" t="n">
@@ -4540,13 +4548,13 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B221" s="0" t="s">
+      <c r="A221" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B221" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C221" s="0" t="s">
+      <c r="C221" s="4" t="s">
         <v>314</v>
       </c>
       <c r="D221" s="1" t="n">
@@ -4555,13 +4563,13 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B222" s="0" t="s">
+      <c r="A222" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B222" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C222" s="0" t="s">
+      <c r="C222" s="4" t="s">
         <v>316</v>
       </c>
       <c r="D222" s="1" t="n">
@@ -4570,13 +4578,13 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B223" s="0" t="s">
+      <c r="A223" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B223" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C223" s="0" t="s">
+      <c r="C223" s="4" t="s">
         <v>316</v>
       </c>
       <c r="D223" s="1" t="n">
@@ -4585,13 +4593,13 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B224" s="0" t="s">
+      <c r="A224" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B224" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C224" s="0" t="s">
+      <c r="C224" s="4" t="s">
         <v>318</v>
       </c>
       <c r="D224" s="1" t="n">
@@ -4600,13 +4608,13 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B225" s="0" t="s">
+      <c r="A225" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B225" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C225" s="0" t="s">
+      <c r="C225" s="4" t="s">
         <v>318</v>
       </c>
       <c r="D225" s="1" t="n">
@@ -4615,13 +4623,13 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B226" s="0" t="s">
+      <c r="A226" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B226" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C226" s="0" t="s">
+      <c r="C226" s="4" t="s">
         <v>320</v>
       </c>
       <c r="D226" s="1" t="n">
@@ -4630,13 +4638,13 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B227" s="0" t="s">
+      <c r="A227" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C227" s="0" t="s">
+      <c r="C227" s="4" t="s">
         <v>320</v>
       </c>
       <c r="D227" s="1" t="n">
@@ -4645,13 +4653,13 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B228" s="0" t="s">
+      <c r="A228" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B228" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C228" s="0" t="s">
+      <c r="C228" s="4" t="s">
         <v>322</v>
       </c>
       <c r="D228" s="1" t="n">
@@ -4660,13 +4668,13 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B229" s="0" t="s">
+      <c r="A229" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B229" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C229" s="0" t="s">
+      <c r="C229" s="4" t="s">
         <v>322</v>
       </c>
       <c r="D229" s="1" t="n">
@@ -4675,13 +4683,13 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B230" s="0" t="s">
+      <c r="A230" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B230" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C230" s="0" t="s">
+      <c r="C230" s="4" t="s">
         <v>324</v>
       </c>
       <c r="D230" s="1" t="n">
@@ -4690,13 +4698,13 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B231" s="0" t="s">
+      <c r="A231" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B231" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C231" s="0" t="s">
+      <c r="C231" s="4" t="s">
         <v>324</v>
       </c>
       <c r="D231" s="1" t="n">
@@ -4705,13 +4713,13 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B232" s="0" t="s">
+      <c r="A232" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B232" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C232" s="0" t="s">
+      <c r="C232" s="4" t="s">
         <v>326</v>
       </c>
       <c r="D232" s="1" t="n">
@@ -4720,13 +4728,13 @@
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B233" s="0" t="s">
+      <c r="A233" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B233" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C233" s="0" t="s">
+      <c r="C233" s="4" t="s">
         <v>326</v>
       </c>
       <c r="D233" s="1" t="n">
@@ -4735,13 +4743,13 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B234" s="0" t="s">
+      <c r="A234" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B234" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C234" s="0" t="s">
+      <c r="C234" s="4" t="s">
         <v>328</v>
       </c>
       <c r="D234" s="1" t="n">
@@ -4750,13 +4758,13 @@
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B235" s="0" t="s">
+      <c r="A235" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B235" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C235" s="0" t="s">
+      <c r="C235" s="4" t="s">
         <v>328</v>
       </c>
       <c r="D235" s="1" t="n">
@@ -4765,13 +4773,13 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B236" s="0" t="s">
+      <c r="A236" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B236" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C236" s="0" t="s">
+      <c r="C236" s="4" t="s">
         <v>330</v>
       </c>
       <c r="D236" s="1" t="n">
@@ -4780,13 +4788,13 @@
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B237" s="0" t="s">
+      <c r="A237" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B237" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C237" s="0" t="s">
+      <c r="C237" s="4" t="s">
         <v>330</v>
       </c>
       <c r="D237" s="1" t="n">
@@ -4795,13 +4803,13 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B238" s="0" t="s">
+      <c r="A238" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B238" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C238" s="0" t="s">
+      <c r="C238" s="4" t="s">
         <v>332</v>
       </c>
       <c r="D238" s="1" t="n">
@@ -4810,13 +4818,13 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B239" s="0" t="s">
+      <c r="A239" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B239" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C239" s="0" t="s">
+      <c r="C239" s="4" t="s">
         <v>332</v>
       </c>
       <c r="D239" s="1" t="n">
@@ -4825,13 +4833,13 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B240" s="0" t="s">
+      <c r="A240" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B240" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C240" s="0" t="s">
+      <c r="C240" s="4" t="s">
         <v>334</v>
       </c>
       <c r="D240" s="1" t="n">
@@ -4840,13 +4848,13 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B241" s="0" t="s">
+      <c r="A241" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B241" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C241" s="0" t="s">
+      <c r="C241" s="4" t="s">
         <v>334</v>
       </c>
       <c r="D241" s="1" t="n">
@@ -4855,13 +4863,13 @@
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B242" s="0" t="s">
+      <c r="A242" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B242" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C242" s="0" t="s">
+      <c r="C242" s="4" t="s">
         <v>336</v>
       </c>
       <c r="D242" s="1" t="n">
@@ -4870,13 +4878,13 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B243" s="0" t="s">
+      <c r="A243" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B243" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C243" s="0" t="s">
+      <c r="C243" s="4" t="s">
         <v>336</v>
       </c>
       <c r="D243" s="1" t="n">
@@ -4885,13 +4893,13 @@
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B244" s="0" t="s">
+      <c r="A244" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B244" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C244" s="0" t="s">
+      <c r="C244" s="4" t="s">
         <v>338</v>
       </c>
       <c r="D244" s="1" t="n">
@@ -4900,13 +4908,13 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B245" s="0" t="s">
+      <c r="A245" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B245" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C245" s="0" t="s">
+      <c r="C245" s="4" t="s">
         <v>338</v>
       </c>
       <c r="D245" s="1" t="n">
@@ -4915,13 +4923,13 @@
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B246" s="0" t="s">
+      <c r="A246" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B246" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C246" s="0" t="s">
+      <c r="C246" s="4" t="s">
         <v>340</v>
       </c>
       <c r="D246" s="1" t="n">
@@ -4930,13 +4938,13 @@
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B247" s="0" t="s">
+      <c r="A247" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B247" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C247" s="0" t="s">
+      <c r="C247" s="4" t="s">
         <v>340</v>
       </c>
       <c r="D247" s="1" t="n">
@@ -4945,13 +4953,13 @@
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B248" s="0" t="s">
+      <c r="A248" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B248" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C248" s="0" t="s">
+      <c r="C248" s="4" t="s">
         <v>342</v>
       </c>
       <c r="D248" s="1" t="n">
@@ -4960,13 +4968,13 @@
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B249" s="0" t="s">
+      <c r="A249" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B249" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C249" s="0" t="s">
+      <c r="C249" s="4" t="s">
         <v>342</v>
       </c>
       <c r="D249" s="1" t="n">
@@ -4975,13 +4983,13 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B250" s="0" t="s">
+      <c r="A250" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B250" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C250" s="0" t="s">
+      <c r="C250" s="4" t="s">
         <v>344</v>
       </c>
       <c r="D250" s="1" t="n">
@@ -4990,13 +4998,13 @@
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B251" s="0" t="s">
+      <c r="A251" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B251" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C251" s="0" t="s">
+      <c r="C251" s="4" t="s">
         <v>344</v>
       </c>
       <c r="D251" s="1" t="n">
@@ -5005,13 +5013,13 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B252" s="0" t="s">
+      <c r="A252" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B252" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C252" s="0" t="s">
+      <c r="C252" s="4" t="s">
         <v>346</v>
       </c>
       <c r="D252" s="1" t="n">
@@ -5020,13 +5028,13 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B253" s="0" t="s">
+      <c r="A253" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B253" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C253" s="0" t="s">
+      <c r="C253" s="4" t="s">
         <v>346</v>
       </c>
       <c r="D253" s="1" t="n">
@@ -5035,13 +5043,13 @@
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B254" s="0" t="s">
+      <c r="A254" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B254" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C254" s="0" t="s">
+      <c r="C254" s="4" t="s">
         <v>348</v>
       </c>
       <c r="D254" s="1" t="n">
@@ -5050,13 +5058,13 @@
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B255" s="0" t="s">
+      <c r="A255" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B255" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C255" s="0" t="s">
+      <c r="C255" s="4" t="s">
         <v>348</v>
       </c>
       <c r="D255" s="1" t="n">
@@ -5065,13 +5073,13 @@
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B256" s="0" t="s">
+      <c r="A256" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B256" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C256" s="0" t="s">
+      <c r="C256" s="4" t="s">
         <v>350</v>
       </c>
       <c r="D256" s="1" t="n">
@@ -5080,13 +5088,13 @@
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B257" s="0" t="s">
+      <c r="A257" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B257" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C257" s="0" t="s">
+      <c r="C257" s="4" t="s">
         <v>350</v>
       </c>
       <c r="D257" s="1" t="n">
@@ -5095,13 +5103,13 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B258" s="0" t="s">
+      <c r="A258" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B258" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C258" s="0" t="s">
+      <c r="C258" s="4" t="s">
         <v>352</v>
       </c>
       <c r="D258" s="1" t="n">
@@ -5110,13 +5118,13 @@
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B259" s="0" t="s">
+      <c r="A259" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B259" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C259" s="0" t="s">
+      <c r="C259" s="4" t="s">
         <v>352</v>
       </c>
       <c r="D259" s="1" t="n">
@@ -5125,13 +5133,13 @@
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B260" s="0" t="s">
+      <c r="A260" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B260" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C260" s="0" t="s">
+      <c r="C260" s="4" t="s">
         <v>354</v>
       </c>
       <c r="D260" s="1" t="n">
@@ -5140,13 +5148,13 @@
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B261" s="0" t="s">
+      <c r="A261" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B261" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C261" s="0" t="s">
+      <c r="C261" s="4" t="s">
         <v>354</v>
       </c>
       <c r="D261" s="1" t="n">
@@ -5155,13 +5163,13 @@
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B262" s="0" t="s">
+      <c r="A262" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B262" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C262" s="0" t="s">
+      <c r="C262" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D262" s="1" t="n">
@@ -5170,13 +5178,13 @@
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B263" s="0" t="s">
+      <c r="A263" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B263" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C263" s="0" t="s">
+      <c r="C263" s="4" t="s">
         <v>356</v>
       </c>
       <c r="D263" s="1" t="n">
@@ -5185,13 +5193,13 @@
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B264" s="0" t="s">
+      <c r="A264" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B264" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C264" s="0" t="s">
+      <c r="C264" s="4" t="s">
         <v>358</v>
       </c>
       <c r="D264" s="1" t="n">
@@ -5200,13 +5208,13 @@
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B265" s="0" t="s">
+      <c r="A265" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B265" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C265" s="0" t="s">
+      <c r="C265" s="4" t="s">
         <v>359</v>
       </c>
       <c r="D265" s="1" t="n">
@@ -5215,13 +5223,13 @@
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B266" s="0" t="s">
+      <c r="A266" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B266" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C266" s="0" t="s">
+      <c r="C266" s="4" t="s">
         <v>361</v>
       </c>
       <c r="D266" s="1" t="n">
@@ -5230,13 +5238,13 @@
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B267" s="0" t="s">
+      <c r="A267" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B267" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C267" s="0" t="s">
+      <c r="C267" s="4" t="s">
         <v>362</v>
       </c>
       <c r="D267" s="1" t="n">

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/template_type.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/template_type.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="364">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Template for authorization content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">auth-email-subject</t>
@@ -1239,8 +1242,8 @@
   </sheetPr>
   <dimension ref="A1:D267"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A264" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1272,9 +1275,8 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1282,14 +1284,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1297,14 +1298,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,14 +1312,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1327,14 +1326,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1342,104 +1340,97 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,14 +1438,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1462,14 +1452,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1477,14 +1466,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,14 +1480,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,14 +1494,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,14 +1508,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,14 +1522,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,134 +1536,125 @@
         <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1687,14 +1662,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,14 +1676,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,14 +1690,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,14 +1704,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1747,14 +1718,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,14 +1732,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1777,14 +1746,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1792,14 +1760,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1807,149 +1774,139 @@
         <v>4</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1957,14 +1914,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1972,14 +1928,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1987,14 +1942,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2002,14 +1956,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2017,14 +1970,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2032,104 +1984,97 @@
         <v>4</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2137,29 +2082,27 @@
         <v>4</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D60" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D61" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,29 +2110,27 @@
         <v>4</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D62" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D63" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>97</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2197,29 +2138,27 @@
         <v>4</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D64" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2227,29 +2166,27 @@
         <v>4</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D66" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D67" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2257,29 +2194,27 @@
         <v>4</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D68" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D69" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2287,29 +2222,27 @@
         <v>4</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D70" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2317,29 +2250,27 @@
         <v>4</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D72" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D73" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2347,29 +2278,27 @@
         <v>4</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D74" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D75" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D75" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2377,29 +2306,27 @@
         <v>4</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D76" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D77" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,29 +2334,27 @@
         <v>4</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D78" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>118</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D79" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>119</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2437,29 +2362,27 @@
         <v>4</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D80" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D81" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>122</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2467,29 +2390,27 @@
         <v>4</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D82" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>124</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D83" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,29 +2418,27 @@
         <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D84" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D85" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2527,29 +2446,27 @@
         <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D86" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D87" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D87" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2557,29 +2474,27 @@
         <v>4</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D88" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>131</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D89" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>132</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2587,29 +2502,27 @@
         <v>4</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D90" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>131</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D91" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D91" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,29 +2530,27 @@
         <v>4</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D92" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D93" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2647,29 +2558,27 @@
         <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D94" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>138</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D95" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>139</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,29 +2586,27 @@
         <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D96" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D97" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2707,29 +2614,27 @@
         <v>4</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D98" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D99" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2737,29 +2642,27 @@
         <v>4</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D100" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D101" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2767,29 +2670,27 @@
         <v>4</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D102" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D103" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>151</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2797,29 +2698,27 @@
         <v>4</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D104" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>153</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D105" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2827,29 +2726,27 @@
         <v>4</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D106" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D107" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2857,29 +2754,27 @@
         <v>4</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D108" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D109" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2887,29 +2782,27 @@
         <v>4</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D110" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>162</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D111" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2917,29 +2810,27 @@
         <v>4</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D112" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D113" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2947,29 +2838,27 @@
         <v>4</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D114" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D115" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2977,29 +2866,27 @@
         <v>4</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D116" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D117" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>172</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3007,29 +2894,27 @@
         <v>4</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D118" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>174</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D119" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3037,29 +2922,27 @@
         <v>4</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D120" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D121" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3067,29 +2950,27 @@
         <v>4</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D122" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D123" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>181</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3097,29 +2978,27 @@
         <v>4</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D124" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>183</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D125" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>184</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3127,29 +3006,27 @@
         <v>4</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D126" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>186</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D127" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>187</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3157,29 +3034,27 @@
         <v>4</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D128" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>189</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D129" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>190</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3187,29 +3062,27 @@
         <v>4</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D130" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>192</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D131" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>193</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3217,29 +3090,27 @@
         <v>4</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D132" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>195</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D133" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>196</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3247,29 +3118,27 @@
         <v>4</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D134" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>198</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D135" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>199</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,29 +3146,27 @@
         <v>4</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D136" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>201</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D137" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,29 +3174,27 @@
         <v>4</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D138" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>204</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D139" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3337,29 +3202,27 @@
         <v>4</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D140" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>207</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D141" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,29 +3230,27 @@
         <v>4</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D142" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>210</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D143" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>211</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3397,29 +3258,27 @@
         <v>4</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D144" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>213</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D145" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>214</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3427,29 +3286,27 @@
         <v>4</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D146" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>216</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D147" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>217</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3457,29 +3314,27 @@
         <v>4</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D148" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>219</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D149" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>220</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,29 +3342,27 @@
         <v>4</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D150" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>222</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D151" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>223</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3517,29 +3370,27 @@
         <v>4</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D152" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>225</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D153" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>226</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3547,29 +3398,27 @@
         <v>4</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D154" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>228</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D155" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>229</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3577,29 +3426,27 @@
         <v>4</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D156" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>231</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D157" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3607,29 +3454,27 @@
         <v>4</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D158" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>234</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D159" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>235</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3637,29 +3482,27 @@
         <v>4</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D160" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>237</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D161" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>238</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3667,29 +3510,27 @@
         <v>4</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D162" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>240</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D163" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>241</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3697,29 +3538,27 @@
         <v>4</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D164" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>243</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D165" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>244</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3727,29 +3566,27 @@
         <v>4</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D166" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>246</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D167" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>247</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,29 +3594,27 @@
         <v>4</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D168" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>249</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D169" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>250</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3787,29 +3622,27 @@
         <v>4</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D170" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>252</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D171" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>253</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3817,29 +3650,27 @@
         <v>4</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D172" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>255</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D173" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>256</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3847,29 +3678,27 @@
         <v>4</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D174" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>258</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D175" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3877,29 +3706,27 @@
         <v>4</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D176" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>261</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D177" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>262</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3907,29 +3734,27 @@
         <v>4</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D178" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>264</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D179" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>265</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3937,29 +3762,27 @@
         <v>4</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D180" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>267</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D181" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>268</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3967,29 +3790,27 @@
         <v>4</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D182" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>270</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D183" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>271</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3997,29 +3818,27 @@
         <v>4</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D184" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>273</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D185" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>274</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4027,29 +3846,27 @@
         <v>4</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D186" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>276</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D187" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>277</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4057,29 +3874,27 @@
         <v>4</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D188" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>279</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D189" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>280</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4087,29 +3902,27 @@
         <v>4</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D190" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>282</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D191" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>283</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,29 +3930,27 @@
         <v>4</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D192" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>285</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D193" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>286</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4147,29 +3958,27 @@
         <v>4</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D194" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>288</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D195" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>289</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4177,29 +3986,27 @@
         <v>4</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="D196" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>291</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="D197" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>291</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4207,29 +4014,27 @@
         <v>4</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D198" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>293</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D199" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>293</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4237,29 +4042,27 @@
         <v>4</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D200" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>295</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D201" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>295</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4267,29 +4070,27 @@
         <v>4</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D202" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>297</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D203" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>297</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4297,29 +4098,27 @@
         <v>4</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D204" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>299</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D205" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>299</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4327,29 +4126,27 @@
         <v>4</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="D206" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>301</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="D207" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>301</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4357,29 +4154,27 @@
         <v>4</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D208" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>303</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D209" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>303</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4387,29 +4182,27 @@
         <v>4</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D210" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>305</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D211" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>305</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4417,29 +4210,27 @@
         <v>4</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D212" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>307</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D213" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>307</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4447,29 +4238,27 @@
         <v>4</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D214" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>309</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D215" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>309</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4477,29 +4266,27 @@
         <v>4</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D216" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>311</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D217" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>311</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4507,29 +4294,27 @@
         <v>4</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D218" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>313</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D219" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>313</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4537,29 +4322,27 @@
         <v>4</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D220" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>315</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D221" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>315</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4567,29 +4350,27 @@
         <v>4</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D222" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>317</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D223" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>317</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4597,29 +4378,27 @@
         <v>4</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D224" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>319</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D225" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>319</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4627,29 +4406,27 @@
         <v>4</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D226" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>321</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D227" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>321</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4657,29 +4434,27 @@
         <v>4</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D228" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>323</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D229" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>323</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4687,29 +4462,27 @@
         <v>4</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D230" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>325</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D231" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>325</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4717,29 +4490,27 @@
         <v>4</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D232" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>327</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D233" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>327</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4747,29 +4518,27 @@
         <v>4</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D234" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>329</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D235" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>329</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4777,29 +4546,27 @@
         <v>4</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D236" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>331</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D237" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>331</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4807,29 +4574,27 @@
         <v>4</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D238" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>333</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D239" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>333</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4837,29 +4602,27 @@
         <v>4</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="D240" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>335</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="D241" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>335</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4867,29 +4630,27 @@
         <v>4</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D242" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>337</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D243" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>337</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4897,29 +4658,27 @@
         <v>4</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D244" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>339</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D245" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>339</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4927,29 +4686,27 @@
         <v>4</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D246" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>341</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D247" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>341</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4957,29 +4714,27 @@
         <v>4</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="D248" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>343</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="D249" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>343</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4987,29 +4742,27 @@
         <v>4</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D250" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>345</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D251" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>345</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5017,29 +4770,27 @@
         <v>4</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D252" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>347</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D253" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>347</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5047,29 +4798,27 @@
         <v>4</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="D254" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>349</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="D255" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>349</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5077,29 +4826,27 @@
         <v>4</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D256" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>351</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D257" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>351</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5107,29 +4854,27 @@
         <v>4</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="D258" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>353</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="D259" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>353</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5137,29 +4882,27 @@
         <v>4</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D260" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>355</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D261" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>355</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5167,29 +4910,27 @@
         <v>4</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D262" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D263" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>357</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5197,29 +4938,27 @@
         <v>4</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D264" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>359</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="D265" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>360</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5227,29 +4966,27 @@
         <v>4</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D266" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>362</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D267" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>363</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
